--- a/artfynd/A 53849-2022.xlsx
+++ b/artfynd/A 53849-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY70"/>
+  <dimension ref="A1:AY71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8988,6 +8988,119 @@
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>111783083</v>
+      </c>
+      <c r="B71" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Grim-Moberg, Dlr</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>511376.8557572768</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6733130.380200358</v>
+      </c>
+      <c r="S71" t="n">
+        <v>25</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Göran Ehn</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Lars-Erik Nilsson, Erik Danielsson, Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 53849-2022.xlsx
+++ b/artfynd/A 53849-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY71"/>
+  <dimension ref="A1:AY72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9101,6 +9101,119 @@
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>112056163</v>
+      </c>
+      <c r="B72" t="n">
+        <v>95532</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>221945</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Lycopodium annotinum</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Leksand (Leksand), Dlr</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>511888.8911682739</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6732964.752952207</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Evalena Sköld</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Evalena Sköld, Åke Sköld</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 53849-2022.xlsx
+++ b/artfynd/A 53849-2022.xlsx
@@ -9031,10 +9031,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>511376.8557572768</v>
+        <v>511377</v>
       </c>
       <c r="R71" t="n">
-        <v>6733130.380200358</v>
+        <v>6733130</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -9064,19 +9064,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9144,10 +9134,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>511888.8911682739</v>
+        <v>511889</v>
       </c>
       <c r="R72" t="n">
-        <v>6732964.752952207</v>
+        <v>6732965</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>

--- a/artfynd/A 53849-2022.xlsx
+++ b/artfynd/A 53849-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1050865</v>
+        <v>104876284</v>
       </c>
       <c r="B2" t="n">
-        <v>89449</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,46 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3277</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>sjö-moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>511794.7956933266</v>
+        <v>511979.1050918162</v>
       </c>
       <c r="R2" t="n">
-        <v>6732972.268510741</v>
+        <v>6732945.976053858</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,27 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2011-08-08</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2011-08-08</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ej kalk ej rörligt mark vatten</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,31 +777,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>stig</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Charlie Ekenberg</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Charlie Ekenberg</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104756852</v>
+        <v>106820920</v>
       </c>
       <c r="B3" t="n">
-        <v>8377</v>
+        <v>56395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,39 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511646.835470463</v>
+        <v>512059.144694202</v>
       </c>
       <c r="R3" t="n">
-        <v>6733121.465027385</v>
+        <v>6733184.460786236</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -882,22 +867,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,22 +902,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Lisa Olson, Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104756507</v>
+        <v>107243512</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,42 +926,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Morberg, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511569.2456537237</v>
+        <v>512133.5694083605</v>
       </c>
       <c r="R4" t="n">
-        <v>6733177.46449594</v>
+        <v>6733052.643484418</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -995,22 +984,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,22 +1014,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Jakob Wallin</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Lisa Olson, Bo karlstens</t>
+          <t>Jakob Wallin, Matilda Elgerud</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104776874</v>
+        <v>107243511</v>
       </c>
       <c r="B5" t="n">
-        <v>4711</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,47 +1038,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100299</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Morberg, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>512013.5458773003</v>
+        <v>512111.1316542162</v>
       </c>
       <c r="R5" t="n">
-        <v>6732903.044483243</v>
+        <v>6733023.218307957</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1116,7 +1096,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1126,7 +1106,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1140,26 +1120,25 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Jakob Wallin</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Lisa Olson, Anna-Britt Olsson, Evalena Sköld</t>
+          <t>Jakob Wallin, Matilda Elgerud</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104776861</v>
+        <v>107711357</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1202,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511610.1053711132</v>
+        <v>512095.5141206055</v>
       </c>
       <c r="R6" t="n">
-        <v>6733116.943506738</v>
+        <v>6733150.343864606</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1232,7 +1211,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1242,17 +1221,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På gran ca) 200år</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1273,17 +1247,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Lisa Olson, Anna-Britt Olsson, Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104875610</v>
+        <v>107711701</v>
       </c>
       <c r="B7" t="n">
-        <v>8377</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,42 +1266,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Leksand Grim Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>511662.0677319245</v>
+        <v>512135.1949764757</v>
       </c>
       <c r="R7" t="n">
-        <v>6733107.818578698</v>
+        <v>6733006.66840061</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1351,22 +1327,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1375,28 +1351,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104876284</v>
+        <v>107711924</v>
       </c>
       <c r="B8" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1405,42 +1382,50 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>511979.1050918162</v>
+        <v>511997.2364792866</v>
       </c>
       <c r="R8" t="n">
-        <v>6732945.976053858</v>
+        <v>6732945.058398214</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1464,22 +1449,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1488,28 +1473,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104914262</v>
+        <v>107711388</v>
       </c>
       <c r="B9" t="n">
-        <v>5135</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1518,47 +1504,44 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>511543.3194473445</v>
+        <v>512126.0746772944</v>
       </c>
       <c r="R9" t="n">
-        <v>6733165.152468384</v>
+        <v>6733095.663231106</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1582,22 +1565,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1606,28 +1589,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kajsa Larsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kajsa Larsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104745905</v>
+        <v>107711369</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1640,21 +1624,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1663,17 +1647,17 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>511444.8863772045</v>
+        <v>512098.521382315</v>
       </c>
       <c r="R10" t="n">
-        <v>6733152.11904772</v>
+        <v>6733130.299275951</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1697,22 +1681,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1728,22 +1712,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Lars Johan Klockars</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105233959</v>
+        <v>107711641</v>
       </c>
       <c r="B11" t="n">
-        <v>56401</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1756,50 +1740,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100048</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>511728.2239844649</v>
+        <v>512210.4874370659</v>
       </c>
       <c r="R11" t="n">
-        <v>6732953.461708012</v>
+        <v>6733053.394003698</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1826,27 +1797,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Rikligt på 2 granar</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1855,25 +1826,26 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Evalena Sköld, Lars Johan Klockars</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105232591</v>
+        <v>109022156</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1907,22 +1879,20 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511696.8178055104</v>
+        <v>512118.2027257785</v>
       </c>
       <c r="R12" t="n">
-        <v>6732968.523109797</v>
+        <v>6733105.41950252</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1946,27 +1916,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Rikligt på gran</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1981,22 +1946,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bo karlstens, Lars-Erik Nilsson, Göran Ehn, Lisa Olson, Evalena Sköld, Lars Johan Klockars, Anna-Britt Olsson, Rolf Lundqvist</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104720409</v>
+        <v>109553960</v>
       </c>
       <c r="B13" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2009,35 +1974,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Hackmorkull, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>511525.7374521485</v>
+        <v>512183.4528754849</v>
       </c>
       <c r="R13" t="n">
-        <v>6733147.976045575</v>
+        <v>6733079.226917277</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2064,22 +2029,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2094,22 +2059,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104745028</v>
+        <v>109554232</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>77507</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2122,16 +2087,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>230405</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2140,19 +2105,17 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Hackmorkull, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>511473.8136320289</v>
+        <v>512184.4327369915</v>
       </c>
       <c r="R14" t="n">
-        <v>6733145.363654208</v>
+        <v>6733079.230250133</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2179,22 +2142,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2203,26 +2166,25 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Lars Johan Klockars</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106820920</v>
+        <v>107711765</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2258,21 +2220,25 @@
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>512059.144694202</v>
+        <v>511997.2364792866</v>
       </c>
       <c r="R15" t="n">
-        <v>6733184.460786236</v>
+        <v>6732945.058398214</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2296,27 +2262,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>Sav sugning på Tall</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2331,22 +2297,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104756703</v>
+        <v>107711582</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2359,40 +2325,45 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>511594.8907637019</v>
+        <v>512138.468752174</v>
       </c>
       <c r="R16" t="n">
-        <v>6733125.209643017</v>
+        <v>6733052.660083119</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2416,27 +2387,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Det finns gott om Garnlav i området. Vissa har brett ut sig på bredden med fina nät mellan grenar medan andra har blivit långa. En vacker kontinuitetsskog som har fått sköta sig själv under lång tid.</t>
+          <t>Sav sugning på tall</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2445,29 +2416,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Anna-Britt Olsson, Lisa Olson, Bo karlstens, Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104914323</v>
+        <v>109778867</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2480,37 +2450,41 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>511652.6254614963</v>
+        <v>512203.9233118462</v>
       </c>
       <c r="R17" t="n">
-        <v>6733148.875717542</v>
+        <v>6733110.601970053</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2537,27 +2511,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:37</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2573,22 +2542,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104756517</v>
+        <v>109779386</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2601,37 +2570,46 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511573.1839558763</v>
+        <v>512197.3643890209</v>
       </c>
       <c r="R18" t="n">
-        <v>6733171.607599386</v>
+        <v>6733166.341644091</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2658,27 +2636,27 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Det finns gott om Garnlav i området. Vissa har brett ut sig på bredden med fina nät mellan grenar medan andra har blivit långa.</t>
+          <t>Ringhack på gammal gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2687,29 +2665,28 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104757792</v>
+        <v>109778917</v>
       </c>
       <c r="B19" t="n">
-        <v>56411</v>
+        <v>55608</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2722,16 +2699,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>102612</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2739,21 +2716,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511840.9119950192</v>
+        <v>512070.8301600809</v>
       </c>
       <c r="R19" t="n">
-        <v>6732953.832419082</v>
+        <v>6733206.021980882</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2780,22 +2769,27 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Uppflygande när jag närmade mig</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2810,22 +2804,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104757825</v>
+        <v>109778802</v>
       </c>
       <c r="B20" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2838,38 +2832,45 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>SJös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>512053.1976543464</v>
+        <v>512137.7749503604</v>
       </c>
       <c r="R20" t="n">
-        <v>6732913.450282242</v>
+        <v>6733112.822935515</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2896,22 +2897,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2920,25 +2921,26 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104914383</v>
+        <v>109779154</v>
       </c>
       <c r="B21" t="n">
         <v>77506</v>
@@ -2977,14 +2979,14 @@
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>511672.7186043769</v>
+        <v>512285.3869880111</v>
       </c>
       <c r="R21" t="n">
-        <v>6733146.984584636</v>
+        <v>6733071.259532289</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3011,27 +3013,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>massor</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3047,22 +3044,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Erik Danielsson, Göran Ehn, Kajsa Larsson, Lisa Olson, Maria Eriksson </t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106947111</v>
+        <v>109778778</v>
       </c>
       <c r="B22" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3075,50 +3072,45 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>511824.2883816378</v>
+        <v>512051.9967279172</v>
       </c>
       <c r="R22" t="n">
-        <v>6733091.719453157</v>
+        <v>6733124.761877734</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3145,22 +3137,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:27</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:27</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3169,33 +3161,29 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106982751</v>
+        <v>109779324</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>96334</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3204,39 +3192,50 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>511468.266564839</v>
+        <v>512259.7565126864</v>
       </c>
       <c r="R23" t="n">
-        <v>6733041.646973284</v>
+        <v>6733116.173210732</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,22 +3262,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3287,28 +3286,29 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107112512</v>
+        <v>109022721</v>
       </c>
       <c r="B24" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3321,41 +3321,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>511740.3754994319</v>
+        <v>512109.4452190898</v>
       </c>
       <c r="R24" t="n">
-        <v>6732833.654048211</v>
+        <v>6733087.291480071</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3379,27 +3376,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>19:42</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>På gran</t>
+          <t>19:42</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3419,17 +3411,17 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Paula Testad</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107112558</v>
+        <v>1050865</v>
       </c>
       <c r="B25" t="n">
-        <v>56395</v>
+        <v>89449</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3442,41 +3434,46 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>3277</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>sjö-moberg, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>511723.1451089406</v>
+        <v>511794.7956933266</v>
       </c>
       <c r="R25" t="n">
-        <v>6732858.545790036</v>
+        <v>6732972.268510741</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3500,22 +3497,27 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2011-08-08</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2011-08-08</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ej kalk ej rörligt mark vatten</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3526,26 +3528,31 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>stig</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Charlie Ekenberg</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Paula Testad</t>
+          <t>Charlie Ekenberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>107112862</v>
+        <v>104756852</v>
       </c>
       <c r="B26" t="n">
-        <v>56395</v>
+        <v>8377</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3554,45 +3561,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>511841.4908756724</v>
+        <v>511646.835470463</v>
       </c>
       <c r="R26" t="n">
-        <v>6732926.930144387</v>
+        <v>6733121.465027385</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3616,27 +3620,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>En betesgran (dubbel) som var kapad som högstubbe strax nedanför Sjös fäbod</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3651,22 +3650,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Erik Danielsson, Göran Ehn, Lars Johan Klockars</t>
+          <t>Lisa Olson, Bo karlstens</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>107112000</v>
+        <v>104756507</v>
       </c>
       <c r="B27" t="n">
-        <v>56395</v>
+        <v>5113</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3675,45 +3674,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>100526</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>511738.6795931564</v>
+        <v>511569.2456537237</v>
       </c>
       <c r="R27" t="n">
-        <v>6732902.622417377</v>
+        <v>6733177.46449594</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3737,27 +3733,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:38</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>granar</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3772,22 +3763,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lisa Olson, Bo karlstens</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>107112612</v>
+        <v>104776874</v>
       </c>
       <c r="B28" t="n">
-        <v>56395</v>
+        <v>4711</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3796,42 +3787,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>100299</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>511775.1324127786</v>
+        <v>512013.5458773003</v>
       </c>
       <c r="R28" t="n">
-        <v>6732843.062559739</v>
+        <v>6732903.044483243</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3858,22 +3854,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3882,28 +3878,29 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Paula Testad</t>
+          <t>Bo karlstens, Göran Ehn, Lisa Olson, Anna-Britt Olsson, Evalena Sköld</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>107111878</v>
+        <v>104776861</v>
       </c>
       <c r="B29" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3916,38 +3913,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>511737.6467915488</v>
+        <v>511610.1053711132</v>
       </c>
       <c r="R29" t="n">
-        <v>6732918.761675922</v>
+        <v>6733116.943506738</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3974,27 +3970,27 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>På gran</t>
+          <t>På gran ca) 200år</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4003,28 +3999,29 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens, Göran Ehn, Lisa Olson, Anna-Britt Olsson, Evalena Sköld</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>107112906</v>
+        <v>104875610</v>
       </c>
       <c r="B30" t="n">
-        <v>56395</v>
+        <v>8377</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4033,45 +4030,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Leksand Grim Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>511856.1910405986</v>
+        <v>511662.0677319245</v>
       </c>
       <c r="R30" t="n">
-        <v>6732926.489598035</v>
+        <v>6733107.818578698</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4095,22 +4089,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:03</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:03</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4125,22 +4119,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Erik Danielsson, Lars Johan Klockars, Göran Ehn</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>107111650</v>
+        <v>104914262</v>
       </c>
       <c r="B31" t="n">
-        <v>56395</v>
+        <v>5135</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4149,20 +4143,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>105930</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4172,22 +4166,24 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>511854.8976327074</v>
+        <v>511543.3194473445</v>
       </c>
       <c r="R31" t="n">
-        <v>6732873.165504958</v>
+        <v>6733165.152468384</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4211,27 +4207,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>16:52</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Gran, Avverkning i full gång</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4246,22 +4237,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Kajsa Larsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Kajsa Larsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>107112366</v>
+        <v>104745905</v>
       </c>
       <c r="B32" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4274,41 +4265,40 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>511764.9283338052</v>
+        <v>511444.8863772045</v>
       </c>
       <c r="R32" t="n">
-        <v>6732817.102388375</v>
+        <v>6733152.11904772</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4332,22 +4322,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4356,6 +4346,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4367,17 +4358,17 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>107187792</v>
+        <v>105233959</v>
       </c>
       <c r="B33" t="n">
-        <v>56395</v>
+        <v>56401</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4390,16 +4381,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>100048</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4409,14 +4400,18 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>par i lämplig häckbiotop</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -4426,13 +4421,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>511914.5343259316</v>
+        <v>511728.2239844649</v>
       </c>
       <c r="R33" t="n">
-        <v>6732914.943095167</v>
+        <v>6732953.461708012</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4456,22 +4451,27 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4486,22 +4486,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Lars-Erik Nilsson, Evalena Sköld, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>107226901</v>
+        <v>105232591</v>
       </c>
       <c r="B34" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4514,21 +4514,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4537,17 +4537,17 @@
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>511948.3133588869</v>
+        <v>511696.8178055104</v>
       </c>
       <c r="R34" t="n">
-        <v>6732923.371492505</v>
+        <v>6732968.523109797</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4571,27 +4571,27 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>Rikligt på gran</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4600,29 +4600,28 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Bo karlstens, Lars-Erik Nilsson, Göran Ehn, Lisa Olson, Evalena Sköld, Lars Johan Klockars, Anna-Britt Olsson, Rolf Lundqvist</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>107243512</v>
+        <v>104720409</v>
       </c>
       <c r="B35" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4635,37 +4634,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Morberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>512133.5694083605</v>
+        <v>511525.7374521485</v>
       </c>
       <c r="R35" t="n">
-        <v>6733052.643484418</v>
+        <v>6733147.976045575</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4689,22 +4689,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4719,19 +4719,19 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Jakob Wallin</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Jakob Wallin, Matilda Elgerud</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>107243511</v>
+        <v>104745028</v>
       </c>
       <c r="B36" t="n">
         <v>77506</v>
@@ -4765,19 +4765,22 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Morberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>512111.1316542162</v>
+        <v>511473.8136320289</v>
       </c>
       <c r="R36" t="n">
-        <v>6733023.218307957</v>
+        <v>6733145.363654208</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4801,22 +4804,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4825,28 +4828,29 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Jakob Wallin</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Jakob Wallin, Matilda Elgerud</t>
+          <t>Evalena Sköld, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>107662265</v>
+        <v>104756703</v>
       </c>
       <c r="B37" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4859,49 +4863,40 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>511605.3313097858</v>
+        <v>511594.8907637019</v>
       </c>
       <c r="R37" t="n">
-        <v>6733078.285548474</v>
+        <v>6733125.209643017</v>
       </c>
       <c r="S37" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4925,22 +4920,27 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Det finns gott om Garnlav i området. Vissa har brett ut sig på bredden med fina nät mellan grenar medan andra har blivit långa. En vacker kontinuitetsskog som har fått sköta sig själv under lång tid.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4949,30 +4949,26 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Paula Testad, Göran Ehn, Lars Johan Klockars</t>
+          <t>Evalena Sköld, Anna-Britt Olsson, Lisa Olson, Bo karlstens, Göran Ehn</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107711357</v>
+        <v>104914323</v>
       </c>
       <c r="B38" t="n">
         <v>77506</v>
@@ -5011,17 +5007,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>512095.5141206055</v>
+        <v>511652.6254614963</v>
       </c>
       <c r="R38" t="n">
-        <v>6733150.343864606</v>
+        <v>6733148.875717542</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5045,22 +5041,27 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:37</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5076,19 +5077,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>107711701</v>
+        <v>104756517</v>
       </c>
       <c r="B39" t="n">
         <v>77506</v>
@@ -5127,17 +5128,17 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>512135.1949764757</v>
+        <v>511573.1839558763</v>
       </c>
       <c r="R39" t="n">
-        <v>6733006.66840061</v>
+        <v>6733171.607599386</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5161,22 +5162,27 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Det finns gott om Garnlav i området. Vissa har brett ut sig på bredden med fina nät mellan grenar medan andra har blivit långa.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5192,22 +5198,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>107711924</v>
+        <v>104757792</v>
       </c>
       <c r="B40" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5216,50 +5222,45 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>511997.2364792866</v>
+        <v>511840.9119950192</v>
       </c>
       <c r="R40" t="n">
-        <v>6732945.058398214</v>
+        <v>6732953.832419082</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5283,22 +5284,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5307,29 +5308,28 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>107711388</v>
+        <v>104757825</v>
       </c>
       <c r="B41" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5342,40 +5342,41 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>512126.0746772944</v>
+        <v>512053.1976543464</v>
       </c>
       <c r="R41" t="n">
-        <v>6733095.663231106</v>
+        <v>6732913.450282242</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5399,22 +5400,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5423,26 +5424,25 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107711369</v>
+        <v>104914383</v>
       </c>
       <c r="B42" t="n">
         <v>77506</v>
@@ -5481,17 +5481,17 @@
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>512098.521382315</v>
+        <v>511672.7186043769</v>
       </c>
       <c r="R42" t="n">
-        <v>6733130.299275951</v>
+        <v>6733146.984584636</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5515,22 +5515,27 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>massor</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5546,22 +5551,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t xml:space="preserve">Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Erik Danielsson, Göran Ehn, Kajsa Larsson, Lisa Olson, Maria Eriksson </t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>107711641</v>
+        <v>106947111</v>
       </c>
       <c r="B43" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5574,40 +5579,53 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>512210.4874370659</v>
+        <v>511824.2883816378</v>
       </c>
       <c r="R43" t="n">
-        <v>6733053.394003698</v>
+        <v>6733091.719453157</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5631,27 +5649,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:27</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Rikligt på 2 granar</t>
+          <t>15:27</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5660,29 +5673,33 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>108118843</v>
+        <v>106982751</v>
       </c>
       <c r="B44" t="n">
-        <v>98520</v>
+        <v>77506</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5691,47 +5708,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>vinterståndare</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>511825.0860315152</v>
+        <v>511468.266564839</v>
       </c>
       <c r="R44" t="n">
-        <v>6732850.07561997</v>
+        <v>6733041.646973284</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5758,22 +5767,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-25</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-25</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5788,22 +5797,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>108120817</v>
+        <v>107112512</v>
       </c>
       <c r="B45" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5812,46 +5821,45 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>511863.5500343807</v>
+        <v>511740.3754994319</v>
       </c>
       <c r="R45" t="n">
-        <v>6732923.578946444</v>
+        <v>6732833.654048211</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5875,22 +5883,27 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5905,22 +5918,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld, Paula Testad</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>108118262</v>
+        <v>107112558</v>
       </c>
       <c r="B46" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5929,50 +5942,45 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>511771.0873355292</v>
+        <v>511723.1451089406</v>
       </c>
       <c r="R46" t="n">
-        <v>6732881.205121688</v>
+        <v>6732858.545790036</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5996,22 +6004,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6026,22 +6034,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld, Paula Testad</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>108120949</v>
+        <v>107112862</v>
       </c>
       <c r="B47" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6050,51 +6058,45 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>511827.2725909789</v>
+        <v>511841.4908756724</v>
       </c>
       <c r="R47" t="n">
-        <v>6732929.81818516</v>
+        <v>6732926.930144387</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6118,22 +6120,27 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>En betesgran (dubbel) som var kapad som högstubbe strax nedanför Sjös fäbod</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6153,17 +6160,17 @@
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Erik Danielsson, Göran Ehn, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>108119367</v>
+        <v>107112000</v>
       </c>
       <c r="B48" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6172,57 +6179,45 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>511827.9628144229</v>
+        <v>511738.6795931564</v>
       </c>
       <c r="R48" t="n">
-        <v>6732869.163060487</v>
+        <v>6732902.622417377</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6246,27 +6241,27 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Återigen en blomma som gjorde att jag tittade noga runt mig och hittade många fler tuvor.</t>
+          <t>granar</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6275,7 +6270,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6287,17 +6281,17 @@
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>108118415</v>
+        <v>107112612</v>
       </c>
       <c r="B49" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6306,57 +6300,45 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>511772.1106530384</v>
+        <v>511775.1324127786</v>
       </c>
       <c r="R49" t="n">
-        <v>6732868.000733965</v>
+        <v>6732843.062559739</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6380,27 +6362,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>15:25</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Men bara en blomma än så länge. Detta var den första jag hittade och den andra bilden visar hygget den står på och blomman finns även på den på bilden om man tittar noga.</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6409,7 +6386,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6421,17 +6397,17 @@
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld, Paula Testad</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>108118787</v>
+        <v>107111878</v>
       </c>
       <c r="B50" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6440,53 +6416,45 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>511723.4029465194</v>
+        <v>511737.6467915488</v>
       </c>
       <c r="R50" t="n">
-        <v>6732929.476754614</v>
+        <v>6732918.761675922</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6510,27 +6478,27 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Endast plantor, inga blommor.</t>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6539,7 +6507,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6551,17 +6518,17 @@
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>108120903</v>
+        <v>107112906</v>
       </c>
       <c r="B51" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6570,53 +6537,45 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>511848.435946088</v>
+        <v>511856.1910405986</v>
       </c>
       <c r="R51" t="n">
-        <v>6732901.027063681</v>
+        <v>6732926.489598035</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6640,27 +6599,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>16:03</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>16:33</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Fyra blommor. Dimmigt, nollgradigt och is i hänglavarna...</t>
+          <t>16:03</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6669,7 +6623,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6681,17 +6634,17 @@
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld, Erik Danielsson, Lars Johan Klockars, Göran Ehn</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>108119845</v>
+        <v>107111650</v>
       </c>
       <c r="B52" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6700,51 +6653,45 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>511849.3721691488</v>
+        <v>511854.8976327074</v>
       </c>
       <c r="R52" t="n">
-        <v>6732914.23779148</v>
+        <v>6732873.165504958</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6768,22 +6715,27 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Gran, Avverkning i full gång</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6810,10 +6762,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>108120722</v>
+        <v>107112366</v>
       </c>
       <c r="B53" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6822,51 +6774,45 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>511850.3990027513</v>
+        <v>511764.9283338052</v>
       </c>
       <c r="R53" t="n">
-        <v>6732900.055212003</v>
+        <v>6732817.102388375</v>
       </c>
       <c r="S53" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6890,22 +6836,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>16:28</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>16:28</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6932,10 +6878,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>109022156</v>
+        <v>107187792</v>
       </c>
       <c r="B54" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6948,35 +6894,46 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>512118.2027257785</v>
+        <v>511914.5343259316</v>
       </c>
       <c r="R54" t="n">
-        <v>6733105.41950252</v>
+        <v>6732914.943095167</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7003,22 +6960,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7033,22 +6990,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>109551213</v>
+        <v>107226901</v>
       </c>
       <c r="B55" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7057,47 +7014,41 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>511787.7748730531</v>
+        <v>511948.3133588869</v>
       </c>
       <c r="R55" t="n">
-        <v>6732872.454831815</v>
+        <v>6732923.371492505</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7124,22 +7075,27 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7148,28 +7104,29 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Anna-Britt Olsson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Anna-Britt Olsson</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>109553960</v>
+        <v>107662265</v>
       </c>
       <c r="B56" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7182,38 +7139,49 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Hackmorkull, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>512183.4528754849</v>
+        <v>511605.3313097858</v>
       </c>
       <c r="R56" t="n">
-        <v>6733079.226917277</v>
+        <v>6733078.285548474</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7237,22 +7205,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7263,26 +7231,31 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Paula Testad, Göran Ehn, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>109554232</v>
+        <v>108118843</v>
       </c>
       <c r="B57" t="n">
-        <v>77507</v>
+        <v>98520</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7291,39 +7264,47 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>230405</v>
+        <v>222498</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Hackmorkull, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>512184.4327369915</v>
+        <v>511825.0860315152</v>
       </c>
       <c r="R57" t="n">
-        <v>6733079.230250133</v>
+        <v>6732850.07561997</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7350,22 +7331,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7380,22 +7361,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>109573919</v>
+        <v>108120817</v>
       </c>
       <c r="B58" t="n">
-        <v>5135</v>
+        <v>98520</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7408,43 +7389,39 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>105930</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>511560.4397725284</v>
+        <v>511863.5500343807</v>
       </c>
       <c r="R58" t="n">
-        <v>6733173.522986764</v>
+        <v>6732923.578946444</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7471,27 +7448,22 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>06:06</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>06:06</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Kan vara Bronshjon ?</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7500,29 +7472,28 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>107299889</v>
+        <v>108118262</v>
       </c>
       <c r="B59" t="n">
-        <v>56411</v>
+        <v>98520</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7531,50 +7502,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>511574.7960015915</v>
+        <v>511771.0873355292</v>
       </c>
       <c r="R59" t="n">
-        <v>6732975.953357909</v>
+        <v>6732881.205121688</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7601,22 +7569,22 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7631,22 +7599,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>107711765</v>
+        <v>108120949</v>
       </c>
       <c r="B60" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7655,49 +7623,51 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>511997.2364792866</v>
+        <v>511827.2725909789</v>
       </c>
       <c r="R60" t="n">
-        <v>6732945.058398214</v>
+        <v>6732929.81818516</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7721,27 +7691,22 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Sav sugning på Tall</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7756,22 +7721,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>107711582</v>
+        <v>108119367</v>
       </c>
       <c r="B61" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7780,49 +7745,57 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>512138.468752174</v>
+        <v>511827.9628144229</v>
       </c>
       <c r="R61" t="n">
-        <v>6733052.660083119</v>
+        <v>6732869.163060487</v>
       </c>
       <c r="S61" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7846,27 +7819,27 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Sav sugning på tall</t>
+          <t>Återigen en blomma som gjorde att jag tittade noga runt mig och hittade många fler tuvor.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7875,28 +7848,29 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>109778867</v>
+        <v>108118415</v>
       </c>
       <c r="B62" t="n">
-        <v>89412</v>
+        <v>98520</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7905,45 +7879,54 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5442</v>
+        <v>222498</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>512203.9233118462</v>
+        <v>511772.1106530384</v>
       </c>
       <c r="R62" t="n">
-        <v>6733110.601970053</v>
+        <v>6732868.000733965</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7970,22 +7953,27 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Men bara en blomma än så länge. Detta var den första jag hittade och den andra bilden visar hygget den står på och blomman finns även på den på bilden om man tittar noga.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8001,22 +7989,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>109779386</v>
+        <v>108118787</v>
       </c>
       <c r="B63" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8025,50 +8013,50 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>512197.3643890209</v>
+        <v>511723.4029465194</v>
       </c>
       <c r="R63" t="n">
-        <v>6733166.341644091</v>
+        <v>6732929.476754614</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8095,27 +8083,27 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Ringhack på gammal gran</t>
+          <t>Endast plantor, inga blommor.</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8124,28 +8112,29 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>109778917</v>
+        <v>108120903</v>
       </c>
       <c r="B64" t="n">
-        <v>55608</v>
+        <v>98520</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8154,54 +8143,50 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>102612</v>
+        <v>222498</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>512070.8301600809</v>
+        <v>511848.435946088</v>
       </c>
       <c r="R64" t="n">
-        <v>6733206.021980882</v>
+        <v>6732901.027063681</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8228,27 +8213,27 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Uppflygande när jag närmade mig</t>
+          <t>Fyra blommor. Dimmigt, nollgradigt och is i hänglavarna...</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8257,28 +8242,29 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>109778802</v>
+        <v>108119845</v>
       </c>
       <c r="B65" t="n">
-        <v>77506</v>
+        <v>98520</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8287,49 +8273,48 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>222498</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>SJös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>512137.7749503604</v>
+        <v>511849.3721691488</v>
       </c>
       <c r="R65" t="n">
-        <v>6733112.822935515</v>
+        <v>6732914.23779148</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8356,22 +8341,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8380,29 +8365,28 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>109779154</v>
+        <v>108120722</v>
       </c>
       <c r="B66" t="n">
-        <v>77506</v>
+        <v>98520</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8411,41 +8395,48 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>222498</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>512285.3869880111</v>
+        <v>511850.3990027513</v>
       </c>
       <c r="R66" t="n">
-        <v>6733071.259532289</v>
+        <v>6732900.055212003</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8472,22 +8463,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8496,29 +8487,28 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>109778778</v>
+        <v>109551213</v>
       </c>
       <c r="B67" t="n">
-        <v>77506</v>
+        <v>98520</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8527,49 +8517,47 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>222498</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>512051.9967279172</v>
+        <v>511787.7748730531</v>
       </c>
       <c r="R67" t="n">
-        <v>6733124.761877734</v>
+        <v>6732872.454831815</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8596,22 +8584,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8620,29 +8608,28 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Anna-Britt Olsson</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Anna-Britt Olsson</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>109779324</v>
+        <v>109573919</v>
       </c>
       <c r="B68" t="n">
-        <v>96334</v>
+        <v>5135</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8651,50 +8638,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>512259.7565126864</v>
+        <v>511560.4397725284</v>
       </c>
       <c r="R68" t="n">
-        <v>6733116.173210732</v>
+        <v>6733173.522986764</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8721,22 +8705,27 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>06:06</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>06:06</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Kan vara Bronshjon ?</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8752,22 +8741,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>110261958</v>
+        <v>107299889</v>
       </c>
       <c r="B69" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8780,35 +8769,46 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>511848.2512184178</v>
+        <v>511574.7960015915</v>
       </c>
       <c r="R69" t="n">
-        <v>6733105.005563889</v>
+        <v>6732975.953357909</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8835,22 +8835,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8865,19 +8865,19 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>109022721</v>
+        <v>110261958</v>
       </c>
       <c r="B70" t="n">
         <v>77506</v>
@@ -8918,10 +8918,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>512109.4452190898</v>
+        <v>511848.2512184178</v>
       </c>
       <c r="R70" t="n">
-        <v>6733087.291480071</v>
+        <v>6733105.005563889</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8948,22 +8948,22 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8993,7 +8993,7 @@
         <v>111783083</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>112056163</v>
       </c>
       <c r="B72" t="n">
-        <v>95532</v>
+        <v>95687</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>

--- a/artfynd/A 53849-2022.xlsx
+++ b/artfynd/A 53849-2022.xlsx
@@ -8993,7 +8993,7 @@
         <v>111783083</v>
       </c>
       <c r="B71" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>112056163</v>
       </c>
       <c r="B72" t="n">
-        <v>95687</v>
+        <v>95701</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>

--- a/artfynd/A 53849-2022.xlsx
+++ b/artfynd/A 53849-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104876284</v>
+        <v>1050865</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>89449</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,46 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>3277</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>sjö-moberg, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>511979.1050918162</v>
+        <v>511794.7956933266</v>
       </c>
       <c r="R2" t="n">
-        <v>6732945.976053858</v>
+        <v>6732972.268510741</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,22 +759,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2011-08-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2011-08-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ej kalk ej rörligt mark vatten</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,26 +790,31 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>stig</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Charlie Ekenberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Charlie Ekenberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106820920</v>
+        <v>104756852</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>8377</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,42 +823,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>512059.144694202</v>
+        <v>511646.835470463</v>
       </c>
       <c r="R3" t="n">
-        <v>6733184.460786236</v>
+        <v>6733121.465027385</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,27 +882,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:43</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,22 +912,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lisa Olson, Bo karlstens</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107243512</v>
+        <v>104756507</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,41 +936,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Morberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>512133.5694083605</v>
+        <v>511569.2456537237</v>
       </c>
       <c r="R4" t="n">
-        <v>6733052.643484418</v>
+        <v>6733177.46449594</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -984,22 +995,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1014,22 +1025,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jakob Wallin</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jakob Wallin, Matilda Elgerud</t>
+          <t>Lisa Olson, Bo karlstens</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107243511</v>
+        <v>104776874</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>4711</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,38 +1049,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100299</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Morberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>512111.1316542162</v>
+        <v>512013.5458773003</v>
       </c>
       <c r="R5" t="n">
-        <v>6733023.218307957</v>
+        <v>6732903.044483243</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1096,7 +1116,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1106,7 +1126,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1120,25 +1140,26 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jakob Wallin</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jakob Wallin, Matilda Elgerud</t>
+          <t>Bo karlstens, Göran Ehn, Lisa Olson, Anna-Britt Olsson, Evalena Sköld</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107711357</v>
+        <v>104776861</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1181,10 +1202,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>512095.5141206055</v>
+        <v>511610.1053711132</v>
       </c>
       <c r="R6" t="n">
-        <v>6733150.343864606</v>
+        <v>6733116.943506738</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1211,7 +1232,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1221,12 +1242,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På gran ca) 200år</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1247,17 +1273,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Bo karlstens, Göran Ehn, Lisa Olson, Anna-Britt Olsson, Evalena Sköld</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107711701</v>
+        <v>104875610</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>8377</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,44 +1292,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand Grim Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>512135.1949764757</v>
+        <v>511662.0677319245</v>
       </c>
       <c r="R7" t="n">
-        <v>6733006.66840061</v>
+        <v>6733107.818578698</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1327,22 +1351,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1351,29 +1375,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107711924</v>
+        <v>104876284</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,50 +1405,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>511997.2364792866</v>
+        <v>511979.1050918162</v>
       </c>
       <c r="R8" t="n">
-        <v>6732945.058398214</v>
+        <v>6732945.976053858</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1449,22 +1464,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,29 +1488,28 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107711388</v>
+        <v>104914262</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>5135</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,44 +1518,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>105930</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>512126.0746772944</v>
+        <v>511543.3194473445</v>
       </c>
       <c r="R9" t="n">
-        <v>6733095.663231106</v>
+        <v>6733165.152468384</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1565,22 +1582,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1589,29 +1606,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Kajsa Larsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Kajsa Larsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107711369</v>
+        <v>104745905</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,21 +1640,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1647,17 +1663,17 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>512098.521382315</v>
+        <v>511444.8863772045</v>
       </c>
       <c r="R10" t="n">
-        <v>6733130.299275951</v>
+        <v>6733152.11904772</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1681,22 +1697,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1712,22 +1728,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107711641</v>
+        <v>105233959</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>56401</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,37 +1756,50 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100048</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>512210.4874370659</v>
+        <v>511728.2239844649</v>
       </c>
       <c r="R11" t="n">
-        <v>6733053.394003698</v>
+        <v>6732953.461708012</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1797,27 +1826,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Rikligt på 2 granar</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1826,26 +1855,25 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson, Evalena Sköld, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109022156</v>
+        <v>105232591</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1879,20 +1907,22 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>512118.2027257785</v>
+        <v>511696.8178055104</v>
       </c>
       <c r="R12" t="n">
-        <v>6733105.41950252</v>
+        <v>6732968.523109797</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1916,22 +1946,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Rikligt på gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,22 +1981,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens, Lars-Erik Nilsson, Göran Ehn, Lisa Olson, Evalena Sköld, Lars Johan Klockars, Anna-Britt Olsson, Rolf Lundqvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>109553960</v>
+        <v>104720409</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,35 +2009,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Hackmorkull, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>512183.4528754849</v>
+        <v>511525.7374521485</v>
       </c>
       <c r="R13" t="n">
-        <v>6733079.226917277</v>
+        <v>6733147.976045575</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2029,22 +2064,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2059,22 +2094,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>109554232</v>
+        <v>104745028</v>
       </c>
       <c r="B14" t="n">
-        <v>77507</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,16 +2122,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>230405</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2105,17 +2140,19 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Hackmorkull, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>512184.4327369915</v>
+        <v>511473.8136320289</v>
       </c>
       <c r="R14" t="n">
-        <v>6733079.230250133</v>
+        <v>6733145.363654208</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2142,22 +2179,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2166,25 +2203,26 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Evalena Sköld, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107711765</v>
+        <v>106820920</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2220,25 +2258,21 @@
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>511997.2364792866</v>
+        <v>512059.144694202</v>
       </c>
       <c r="R15" t="n">
-        <v>6732945.058398214</v>
+        <v>6733184.460786236</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2262,27 +2296,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Sav sugning på Tall</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2297,22 +2331,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107711582</v>
+        <v>104756703</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2325,45 +2359,40 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>512138.468752174</v>
+        <v>511594.8907637019</v>
       </c>
       <c r="R16" t="n">
-        <v>6733052.660083119</v>
+        <v>6733125.209643017</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2387,27 +2416,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Sav sugning på tall</t>
+          <t>Det finns gott om Garnlav i området. Vissa har brett ut sig på bredden med fina nät mellan grenar medan andra har blivit långa. En vacker kontinuitetsskog som har fått sköta sig själv under lång tid.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2416,28 +2445,29 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld, Anna-Britt Olsson, Lisa Olson, Bo karlstens, Göran Ehn</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>109778867</v>
+        <v>104914323</v>
       </c>
       <c r="B17" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2450,41 +2480,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>512203.9233118462</v>
+        <v>511652.6254614963</v>
       </c>
       <c r="R17" t="n">
-        <v>6733110.601970053</v>
+        <v>6733148.875717542</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2511,22 +2537,27 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>12:37</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2542,22 +2573,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>109779386</v>
+        <v>104756517</v>
       </c>
       <c r="B18" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2570,46 +2601,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>512197.3643890209</v>
+        <v>511573.1839558763</v>
       </c>
       <c r="R18" t="n">
-        <v>6733166.341644091</v>
+        <v>6733171.607599386</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2636,27 +2658,27 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack på gammal gran</t>
+          <t>Det finns gott om Garnlav i området. Vissa har brett ut sig på bredden med fina nät mellan grenar medan andra har blivit långa.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2665,28 +2687,29 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>109778917</v>
+        <v>104757792</v>
       </c>
       <c r="B19" t="n">
-        <v>55608</v>
+        <v>56411</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2699,16 +2722,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>102612</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2716,33 +2739,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>512070.8301600809</v>
+        <v>511840.9119950192</v>
       </c>
       <c r="R19" t="n">
-        <v>6733206.021980882</v>
+        <v>6732953.832419082</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2769,27 +2780,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Uppflygande när jag närmade mig</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2804,22 +2810,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109778802</v>
+        <v>104757825</v>
       </c>
       <c r="B20" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2832,45 +2838,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>SJös Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>512137.7749503604</v>
+        <v>512053.1976543464</v>
       </c>
       <c r="R20" t="n">
-        <v>6733112.822935515</v>
+        <v>6732913.450282242</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2897,22 +2896,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2921,26 +2920,25 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>109779154</v>
+        <v>104914383</v>
       </c>
       <c r="B21" t="n">
         <v>77506</v>
@@ -2979,14 +2977,14 @@
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>512285.3869880111</v>
+        <v>511672.7186043769</v>
       </c>
       <c r="R21" t="n">
-        <v>6733071.259532289</v>
+        <v>6733146.984584636</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3013,22 +3011,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>massor</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3044,22 +3047,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t xml:space="preserve">Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Erik Danielsson, Göran Ehn, Kajsa Larsson, Lisa Olson, Maria Eriksson </t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>109778778</v>
+        <v>106947111</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3072,45 +3075,50 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>512051.9967279172</v>
+        <v>511824.2883816378</v>
       </c>
       <c r="R22" t="n">
-        <v>6733124.761877734</v>
+        <v>6733091.719453157</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3137,22 +3145,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>15:27</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>15:27</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3161,29 +3169,33 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>109779324</v>
+        <v>106982751</v>
       </c>
       <c r="B23" t="n">
-        <v>96334</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3192,50 +3204,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>512259.7565126864</v>
+        <v>511468.266564839</v>
       </c>
       <c r="R23" t="n">
-        <v>6733116.173210732</v>
+        <v>6733041.646973284</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3262,22 +3263,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-02-25</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-02-25</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3286,29 +3287,28 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Lars Johan Klockars</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109022721</v>
+        <v>107112512</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3321,38 +3321,41 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>512109.4452190898</v>
+        <v>511740.3754994319</v>
       </c>
       <c r="R24" t="n">
-        <v>6733087.291480071</v>
+        <v>6732833.654048211</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3376,22 +3379,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3411,17 +3419,17 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Paula Testad</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1050865</v>
+        <v>107112558</v>
       </c>
       <c r="B25" t="n">
-        <v>89449</v>
+        <v>56395</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3434,46 +3442,41 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3277</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>sjö-moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>511794.7956933266</v>
+        <v>511723.1451089406</v>
       </c>
       <c r="R25" t="n">
-        <v>6732972.268510741</v>
+        <v>6732858.545790036</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3497,27 +3500,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2011-08-08</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2011-08-08</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>ej kalk ej rörligt mark vatten</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3528,31 +3526,26 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>stig</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Charlie Ekenberg</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Charlie Ekenberg</t>
+          <t>Evalena Sköld, Paula Testad</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104756852</v>
+        <v>107112862</v>
       </c>
       <c r="B26" t="n">
-        <v>8377</v>
+        <v>56395</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3561,42 +3554,45 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>511646.835470463</v>
+        <v>511841.4908756724</v>
       </c>
       <c r="R26" t="n">
-        <v>6733121.465027385</v>
+        <v>6732926.930144387</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3620,22 +3616,27 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>En betesgran (dubbel) som var kapad som högstubbe strax nedanför Sjös fäbod</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3650,22 +3651,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Lisa Olson, Bo karlstens</t>
+          <t>Evalena Sköld, Erik Danielsson, Göran Ehn, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104756507</v>
+        <v>107112000</v>
       </c>
       <c r="B27" t="n">
-        <v>5113</v>
+        <v>56395</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3674,42 +3675,45 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100526</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>511569.2456537237</v>
+        <v>511738.6795931564</v>
       </c>
       <c r="R27" t="n">
-        <v>6733177.46449594</v>
+        <v>6732902.622417377</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3733,22 +3737,27 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>granar</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3763,22 +3772,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Lisa Olson, Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104776874</v>
+        <v>107112612</v>
       </c>
       <c r="B28" t="n">
-        <v>4711</v>
+        <v>56395</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3787,47 +3796,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100299</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>512013.5458773003</v>
+        <v>511775.1324127786</v>
       </c>
       <c r="R28" t="n">
-        <v>6732903.044483243</v>
+        <v>6732843.062559739</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3854,22 +3858,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3878,29 +3882,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Lisa Olson, Anna-Britt Olsson, Evalena Sköld</t>
+          <t>Evalena Sköld, Paula Testad</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104776861</v>
+        <v>107111878</v>
       </c>
       <c r="B29" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3913,37 +3916,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>511610.1053711132</v>
+        <v>511737.6467915488</v>
       </c>
       <c r="R29" t="n">
-        <v>6733116.943506738</v>
+        <v>6732918.761675922</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3970,27 +3974,27 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>På gran ca) 200år</t>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3999,29 +4003,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Lisa Olson, Anna-Britt Olsson, Evalena Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104875610</v>
+        <v>107112906</v>
       </c>
       <c r="B30" t="n">
-        <v>8377</v>
+        <v>56395</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4030,42 +4033,45 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Leksand Grim Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>511662.0677319245</v>
+        <v>511856.1910405986</v>
       </c>
       <c r="R30" t="n">
-        <v>6733107.818578698</v>
+        <v>6732926.489598035</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4089,22 +4095,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>16:03</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>16:03</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4119,22 +4125,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld, Erik Danielsson, Lars Johan Klockars, Göran Ehn</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104914262</v>
+        <v>107111650</v>
       </c>
       <c r="B31" t="n">
-        <v>5135</v>
+        <v>56395</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4143,20 +4149,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>105930</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4166,24 +4172,22 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>511543.3194473445</v>
+        <v>511854.8976327074</v>
       </c>
       <c r="R31" t="n">
-        <v>6733165.152468384</v>
+        <v>6732873.165504958</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4207,22 +4211,27 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Gran, Avverkning i full gång</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4237,22 +4246,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kajsa Larsson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kajsa Larsson</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104745905</v>
+        <v>107112366</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4265,40 +4274,41 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>511444.8863772045</v>
+        <v>511764.9283338052</v>
       </c>
       <c r="R32" t="n">
-        <v>6733152.11904772</v>
+        <v>6732817.102388375</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4322,22 +4332,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4346,7 +4356,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4358,17 +4367,17 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>105233959</v>
+        <v>107187792</v>
       </c>
       <c r="B33" t="n">
-        <v>56401</v>
+        <v>56395</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4381,16 +4390,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100048</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4400,18 +4409,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>par i lämplig häckbiotop</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -4421,13 +4426,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>511728.2239844649</v>
+        <v>511914.5343259316</v>
       </c>
       <c r="R33" t="n">
-        <v>6732953.461708012</v>
+        <v>6732914.943095167</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4451,27 +4456,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>På gran.</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4486,22 +4486,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Evalena Sköld, Lars Johan Klockars</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>105232591</v>
+        <v>107226901</v>
       </c>
       <c r="B34" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4514,21 +4514,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4537,17 +4537,17 @@
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Moberget, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>511696.8178055104</v>
+        <v>511948.3133588869</v>
       </c>
       <c r="R34" t="n">
-        <v>6732968.523109797</v>
+        <v>6732923.371492505</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4571,27 +4571,27 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Rikligt på gran</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4600,28 +4600,29 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Bo karlstens, Lars-Erik Nilsson, Göran Ehn, Lisa Olson, Evalena Sköld, Lars Johan Klockars, Anna-Britt Olsson, Rolf Lundqvist</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104720409</v>
+        <v>107243512</v>
       </c>
       <c r="B35" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4634,38 +4635,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Morberg, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>511525.7374521485</v>
+        <v>512133.5694083605</v>
       </c>
       <c r="R35" t="n">
-        <v>6733147.976045575</v>
+        <v>6733052.643484418</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4689,22 +4689,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4719,19 +4719,19 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Jakob Wallin</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Jakob Wallin, Matilda Elgerud</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104745028</v>
+        <v>107243511</v>
       </c>
       <c r="B36" t="n">
         <v>77506</v>
@@ -4765,22 +4765,19 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Morberg, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>511473.8136320289</v>
+        <v>512111.1316542162</v>
       </c>
       <c r="R36" t="n">
-        <v>6733145.363654208</v>
+        <v>6733023.218307957</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4804,22 +4801,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4828,29 +4825,28 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Jakob Wallin</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Lars Johan Klockars</t>
+          <t>Jakob Wallin, Matilda Elgerud</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104756703</v>
+        <v>107662265</v>
       </c>
       <c r="B37" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4863,40 +4859,49 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>511594.8907637019</v>
+        <v>511605.3313097858</v>
       </c>
       <c r="R37" t="n">
-        <v>6733125.209643017</v>
+        <v>6733078.285548474</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4920,27 +4925,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Det finns gott om Garnlav i området. Vissa har brett ut sig på bredden med fina nät mellan grenar medan andra har blivit långa. En vacker kontinuitetsskog som har fått sköta sig själv under lång tid.</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4949,26 +4949,30 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Paula Testad</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Anna-Britt Olsson, Lisa Olson, Bo karlstens, Göran Ehn</t>
+          <t>Paula Testad, Göran Ehn, Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104914323</v>
+        <v>107711357</v>
       </c>
       <c r="B38" t="n">
         <v>77506</v>
@@ -5007,17 +5011,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>511652.6254614963</v>
+        <v>512095.5141206055</v>
       </c>
       <c r="R38" t="n">
-        <v>6733148.875717542</v>
+        <v>6733150.343864606</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5041,27 +5045,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:37</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5077,19 +5076,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104756517</v>
+        <v>107711701</v>
       </c>
       <c r="B39" t="n">
         <v>77506</v>
@@ -5128,17 +5127,17 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>511573.1839558763</v>
+        <v>512135.1949764757</v>
       </c>
       <c r="R39" t="n">
-        <v>6733171.607599386</v>
+        <v>6733006.66840061</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5162,27 +5161,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:54</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Det finns gott om Garnlav i området. Vissa har brett ut sig på bredden med fina nät mellan grenar medan andra har blivit långa.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5198,22 +5192,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104757792</v>
+        <v>107711924</v>
       </c>
       <c r="B40" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5222,45 +5216,50 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>511840.9119950192</v>
+        <v>511997.2364792866</v>
       </c>
       <c r="R40" t="n">
-        <v>6732953.832419082</v>
+        <v>6732945.058398214</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5284,22 +5283,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5308,28 +5307,29 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104757825</v>
+        <v>107711388</v>
       </c>
       <c r="B41" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5342,41 +5342,40 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>512053.1976543464</v>
+        <v>512126.0746772944</v>
       </c>
       <c r="R41" t="n">
-        <v>6732913.450282242</v>
+        <v>6733095.663231106</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5400,22 +5399,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5424,25 +5423,26 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Göran Ehn, Lisa Olson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104914383</v>
+        <v>107711369</v>
       </c>
       <c r="B42" t="n">
         <v>77506</v>
@@ -5481,17 +5481,17 @@
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Leksand, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>511672.7186043769</v>
+        <v>512098.521382315</v>
       </c>
       <c r="R42" t="n">
-        <v>6733146.984584636</v>
+        <v>6733130.299275951</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5515,27 +5515,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>massor</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5551,22 +5546,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalena Sköld, Anna-Britt Olsson, Bo karlstens, Erik Danielsson, Göran Ehn, Kajsa Larsson, Lisa Olson, Maria Eriksson </t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>106947111</v>
+        <v>107711641</v>
       </c>
       <c r="B43" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5579,53 +5574,40 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>511824.2883816378</v>
+        <v>512210.4874370659</v>
       </c>
       <c r="R43" t="n">
-        <v>6733091.719453157</v>
+        <v>6733053.394003698</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5649,22 +5631,27 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:27</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Rikligt på 2 granar</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5673,33 +5660,29 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>106982751</v>
+        <v>108118843</v>
       </c>
       <c r="B44" t="n">
-        <v>77506</v>
+        <v>98520</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5708,39 +5691,47 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>222498</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>511468.266564839</v>
+        <v>511825.0860315152</v>
       </c>
       <c r="R44" t="n">
-        <v>6733041.646973284</v>
+        <v>6732850.07561997</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5767,22 +5758,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5797,22 +5788,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>107112512</v>
+        <v>108120817</v>
       </c>
       <c r="B45" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5821,45 +5812,46 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>511740.3754994319</v>
+        <v>511863.5500343807</v>
       </c>
       <c r="R45" t="n">
-        <v>6732833.654048211</v>
+        <v>6732923.578946444</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5883,27 +5875,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>På gran</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5918,22 +5905,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Paula Testad</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>107112558</v>
+        <v>108118262</v>
       </c>
       <c r="B46" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5942,45 +5929,50 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>511723.1451089406</v>
+        <v>511771.0873355292</v>
       </c>
       <c r="R46" t="n">
-        <v>6732858.545790036</v>
+        <v>6732881.205121688</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6004,22 +5996,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6034,22 +6026,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Paula Testad</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>107112862</v>
+        <v>108120949</v>
       </c>
       <c r="B47" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6058,45 +6050,51 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>511841.4908756724</v>
+        <v>511827.2725909789</v>
       </c>
       <c r="R47" t="n">
-        <v>6732926.930144387</v>
+        <v>6732929.81818516</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6120,27 +6118,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>En betesgran (dubbel) som var kapad som högstubbe strax nedanför Sjös fäbod</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6160,17 +6153,17 @@
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Erik Danielsson, Göran Ehn, Lars Johan Klockars</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>107112000</v>
+        <v>108119367</v>
       </c>
       <c r="B48" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6179,45 +6172,57 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>511738.6795931564</v>
+        <v>511827.9628144229</v>
       </c>
       <c r="R48" t="n">
-        <v>6732902.622417377</v>
+        <v>6732869.163060487</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6241,27 +6246,27 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>granar</t>
+          <t>Återigen en blomma som gjorde att jag tittade noga runt mig och hittade många fler tuvor.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6270,6 +6275,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6281,17 +6287,17 @@
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>107112612</v>
+        <v>108118415</v>
       </c>
       <c r="B49" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6300,45 +6306,57 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>511775.1324127786</v>
+        <v>511772.1106530384</v>
       </c>
       <c r="R49" t="n">
-        <v>6732843.062559739</v>
+        <v>6732868.000733965</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6362,22 +6380,27 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Men bara en blomma än så länge. Detta var den första jag hittade och den andra bilden visar hygget den står på och blomman finns även på den på bilden om man tittar noga.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6386,6 +6409,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6397,17 +6421,17 @@
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Paula Testad</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>107111878</v>
+        <v>108118787</v>
       </c>
       <c r="B50" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6416,45 +6440,53 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>511737.6467915488</v>
+        <v>511723.4029465194</v>
       </c>
       <c r="R50" t="n">
-        <v>6732918.761675922</v>
+        <v>6732929.476754614</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6478,27 +6510,27 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>På gran</t>
+          <t>Endast plantor, inga blommor.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6507,6 +6539,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6518,17 +6551,17 @@
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>107112906</v>
+        <v>108120903</v>
       </c>
       <c r="B51" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6537,45 +6570,53 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>511856.1910405986</v>
+        <v>511848.435946088</v>
       </c>
       <c r="R51" t="n">
-        <v>6732926.489598035</v>
+        <v>6732901.027063681</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6599,22 +6640,27 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>16:03</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>16:03</t>
+          <t>16:33</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Fyra blommor. Dimmigt, nollgradigt och is i hänglavarna...</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6623,6 +6669,7 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6634,17 +6681,17 @@
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Erik Danielsson, Lars Johan Klockars, Göran Ehn</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>107111650</v>
+        <v>108119845</v>
       </c>
       <c r="B52" t="n">
-        <v>56395</v>
+        <v>98520</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6653,45 +6700,51 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>511854.8976327074</v>
+        <v>511849.3721691488</v>
       </c>
       <c r="R52" t="n">
-        <v>6732873.165504958</v>
+        <v>6732914.23779148</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6715,27 +6768,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>16:52</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Gran, Avverkning i full gång</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6762,10 +6810,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>107112366</v>
+        <v>108120722</v>
       </c>
       <c r="B53" t="n">
-        <v>56411</v>
+        <v>98520</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6774,45 +6822,51 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>511764.9283338052</v>
+        <v>511850.3990027513</v>
       </c>
       <c r="R53" t="n">
-        <v>6732817.102388375</v>
+        <v>6732900.055212003</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6836,22 +6890,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6878,10 +6932,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>107187792</v>
+        <v>109022156</v>
       </c>
       <c r="B54" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6894,46 +6948,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>par i lämplig häckbiotop</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>511914.5343259316</v>
+        <v>512118.2027257785</v>
       </c>
       <c r="R54" t="n">
-        <v>6732914.943095167</v>
+        <v>6733105.41950252</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6960,22 +7003,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6990,22 +7033,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>107226901</v>
+        <v>109551213</v>
       </c>
       <c r="B55" t="n">
-        <v>89392</v>
+        <v>98520</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7014,41 +7057,47 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Sjös Moberg, Dlr</t>
+          <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>511948.3133588869</v>
+        <v>511787.7748730531</v>
       </c>
       <c r="R55" t="n">
-        <v>6732923.371492505</v>
+        <v>6732872.454831815</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7075,27 +7124,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>15:16</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7104,29 +7148,28 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Anna-Britt Olsson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Anna-Britt Olsson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>107662265</v>
+        <v>109553960</v>
       </c>
       <c r="B56" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7139,49 +7182,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Moberg, Dlr</t>
+          <t>Hackmorkull, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>511605.3313097858</v>
+        <v>512183.4528754849</v>
       </c>
       <c r="R56" t="n">
-        <v>6733078.285548474</v>
+        <v>6733079.226917277</v>
       </c>
       <c r="S56" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7205,22 +7237,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7231,31 +7263,26 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Paula Testad</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Paula Testad, Göran Ehn, Lars Johan Klockars</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>108118843</v>
+        <v>109554232</v>
       </c>
       <c r="B57" t="n">
-        <v>98520</v>
+        <v>77507</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7264,47 +7291,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222498</v>
+        <v>230405</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>vinterståndare</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Hackmorkull, Dlr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>511825.0860315152</v>
+        <v>512184.4327369915</v>
       </c>
       <c r="R57" t="n">
-        <v>6732850.07561997</v>
+        <v>6733079.230250133</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7331,22 +7350,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7361,22 +7380,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>108120817</v>
+        <v>109573919</v>
       </c>
       <c r="B58" t="n">
-        <v>98520</v>
+        <v>5135</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7389,39 +7408,43 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>105930</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>511863.5500343807</v>
+        <v>511560.4397725284</v>
       </c>
       <c r="R58" t="n">
-        <v>6732923.578946444</v>
+        <v>6733173.522986764</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7448,22 +7471,27 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>06:06</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>06:06</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Kan vara Bronshjon ?</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7472,28 +7500,29 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>108118262</v>
+        <v>107299889</v>
       </c>
       <c r="B59" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7502,47 +7531,50 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Sjös-Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>511771.0873355292</v>
+        <v>511574.7960015915</v>
       </c>
       <c r="R59" t="n">
-        <v>6732881.205121688</v>
+        <v>6732975.953357909</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7569,22 +7601,22 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7599,22 +7631,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>108120949</v>
+        <v>107711765</v>
       </c>
       <c r="B60" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7623,51 +7655,49 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>511827.2725909789</v>
+        <v>511997.2364792866</v>
       </c>
       <c r="R60" t="n">
-        <v>6732929.81818516</v>
+        <v>6732945.058398214</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7691,22 +7721,27 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Sav sugning på Tall</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7721,22 +7756,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108119367</v>
+        <v>107711582</v>
       </c>
       <c r="B61" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7745,57 +7780,49 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberget, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>511827.9628144229</v>
+        <v>512138.468752174</v>
       </c>
       <c r="R61" t="n">
-        <v>6732869.163060487</v>
+        <v>6733052.660083119</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7819,27 +7846,27 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Återigen en blomma som gjorde att jag tittade noga runt mig och hittade många fler tuvor.</t>
+          <t>Sav sugning på tall</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7848,29 +7875,28 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>108118415</v>
+        <v>109778867</v>
       </c>
       <c r="B62" t="n">
-        <v>98520</v>
+        <v>89412</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7879,54 +7905,45 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>222498</v>
+        <v>5442</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>511772.1106530384</v>
+        <v>512203.9233118462</v>
       </c>
       <c r="R62" t="n">
-        <v>6732868.000733965</v>
+        <v>6733110.601970053</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7953,27 +7970,22 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>15:25</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Men bara en blomma än så länge. Detta var den första jag hittade och den andra bilden visar hygget den står på och blomman finns även på den på bilden om man tittar noga.</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7989,22 +8001,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>108118787</v>
+        <v>109779386</v>
       </c>
       <c r="B63" t="n">
-        <v>98520</v>
+        <v>56395</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8013,50 +8025,50 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>511723.4029465194</v>
+        <v>512197.3643890209</v>
       </c>
       <c r="R63" t="n">
-        <v>6732929.476754614</v>
+        <v>6733166.341644091</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8083,27 +8095,27 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Endast plantor, inga blommor.</t>
+          <t>Ringhack på gammal gran</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8112,29 +8124,28 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>108120903</v>
+        <v>109778917</v>
       </c>
       <c r="B64" t="n">
-        <v>98520</v>
+        <v>55608</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8143,50 +8154,54 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>222498</v>
+        <v>102612</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>511848.435946088</v>
+        <v>512070.8301600809</v>
       </c>
       <c r="R64" t="n">
-        <v>6732901.027063681</v>
+        <v>6733206.021980882</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8213,27 +8228,27 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Fyra blommor. Dimmigt, nollgradigt och is i hänglavarna...</t>
+          <t>Uppflygande när jag närmade mig</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8242,29 +8257,28 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>108119845</v>
+        <v>109778802</v>
       </c>
       <c r="B65" t="n">
-        <v>98520</v>
+        <v>77506</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8273,48 +8287,49 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>SJös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>511849.3721691488</v>
+        <v>512137.7749503604</v>
       </c>
       <c r="R65" t="n">
-        <v>6732914.23779148</v>
+        <v>6733112.822935515</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8341,22 +8356,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8365,28 +8380,29 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>108120722</v>
+        <v>109779154</v>
       </c>
       <c r="B66" t="n">
-        <v>98520</v>
+        <v>77506</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8395,48 +8411,41 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>511850.3990027513</v>
+        <v>512285.3869880111</v>
       </c>
       <c r="R66" t="n">
-        <v>6732900.055212003</v>
+        <v>6733071.259532289</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8463,22 +8472,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16:28</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>16:28</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8487,28 +8496,29 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>109551213</v>
+        <v>109778778</v>
       </c>
       <c r="B67" t="n">
-        <v>98520</v>
+        <v>77506</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8517,47 +8527,49 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>511787.7748730531</v>
+        <v>512051.9967279172</v>
       </c>
       <c r="R67" t="n">
-        <v>6732872.454831815</v>
+        <v>6733124.761877734</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8584,22 +8596,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8608,28 +8620,29 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Anna-Britt Olsson</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Anna-Britt Olsson</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>109573919</v>
+        <v>109779324</v>
       </c>
       <c r="B68" t="n">
-        <v>5135</v>
+        <v>96334</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8638,47 +8651,50 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Sjös Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>511560.4397725284</v>
+        <v>512259.7565126864</v>
       </c>
       <c r="R68" t="n">
-        <v>6733173.522986764</v>
+        <v>6733116.173210732</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8705,27 +8721,22 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>06:06</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>06:06</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Kan vara Bronshjon ?</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8741,22 +8752,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars Johan Klockars</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>107299889</v>
+        <v>110261958</v>
       </c>
       <c r="B69" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8769,46 +8780,35 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Sjös-Moberg, Dlr</t>
+          <t>Moberg, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>511574.7960015915</v>
+        <v>511848.2512184178</v>
       </c>
       <c r="R69" t="n">
-        <v>6732975.953357909</v>
+        <v>6733105.005563889</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8835,22 +8835,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8865,19 +8865,19 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>110261958</v>
+        <v>109022721</v>
       </c>
       <c r="B70" t="n">
         <v>77506</v>
@@ -8918,10 +8918,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>511848.2512184178</v>
+        <v>512109.4452190898</v>
       </c>
       <c r="R70" t="n">
-        <v>6733105.005563889</v>
+        <v>6733087.291480071</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8948,22 +8948,22 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>19:42</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>19:42</t>
         </is>
       </c>
       <c r="AD70" t="b">
